--- a/public/uploads/rongyu_teacher/js_rongyu.xlsx
+++ b/public/uploads/rongyu_teacher/js_rongyu.xlsx
@@ -153,15 +153,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -173,6 +164,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,51 +475,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="27.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -551,70 +551,70 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
